--- a/Desarrollo/Zorrito Plus/ZP-CP.xlsx
+++ b/Desarrollo/Zorrito Plus/ZP-CP.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programación\Repositorios\Wilson-Devs\Documentos\Planes\ZP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programación\Repositorios\Wilson-Devs\Desarrollo\Zorrito Plus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43412D51-9C7E-48BA-8346-DD785CA8E8B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B9163BF-ED8E-4CE2-9854-770B7148AEC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -616,7 +616,7 @@
       <name val="Montserrat"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -651,12 +651,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFD1D141"/>
         <bgColor rgb="FFD1D141"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFD966"/>
-        <bgColor rgb="FFFFD966"/>
       </patternFill>
     </fill>
     <fill>
@@ -1088,7 +1082,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1201,16 +1195,13 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="13" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1317,6 +1308,37 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1329,37 +1351,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1679,8 +1670,8 @@
   </sheetPr>
   <dimension ref="A1:Z1012"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -1697,17 +1688,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="32.25" customHeight="1">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -1756,10 +1747,10 @@
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1">
       <c r="A3" s="3"/>
-      <c r="B3" s="80" t="s">
+      <c r="B3" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="81"/>
+      <c r="C3" s="93"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="3"/>
@@ -1966,10 +1957,10 @@
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1">
       <c r="A10" s="17"/>
-      <c r="B10" s="82" t="s">
+      <c r="B10" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="83"/>
+      <c r="C10" s="95"/>
       <c r="D10" s="20" t="s">
         <v>11</v>
       </c>
@@ -2008,10 +1999,10 @@
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1">
       <c r="A11" s="17"/>
-      <c r="B11" s="84" t="s">
+      <c r="B11" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="85"/>
+      <c r="C11" s="78"/>
       <c r="D11" s="24" t="s">
         <v>18</v>
       </c>
@@ -2050,10 +2041,10 @@
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1">
       <c r="A12" s="17"/>
-      <c r="B12" s="84" t="s">
+      <c r="B12" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="85"/>
+      <c r="C12" s="78"/>
       <c r="D12" s="24" t="s">
         <v>18</v>
       </c>
@@ -2092,10 +2083,10 @@
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1">
       <c r="A13" s="17"/>
-      <c r="B13" s="84" t="s">
+      <c r="B13" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="85"/>
+      <c r="C13" s="78"/>
       <c r="D13" s="29" t="s">
         <v>23</v>
       </c>
@@ -2134,10 +2125,10 @@
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1">
       <c r="A14" s="17"/>
-      <c r="B14" s="84" t="s">
+      <c r="B14" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="85"/>
+      <c r="C14" s="78"/>
       <c r="D14" s="32" t="s">
         <v>26</v>
       </c>
@@ -2176,10 +2167,10 @@
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1">
       <c r="A15" s="17"/>
-      <c r="B15" s="84" t="s">
+      <c r="B15" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="85"/>
+      <c r="C15" s="78"/>
       <c r="D15" s="29" t="s">
         <v>29</v>
       </c>
@@ -2218,10 +2209,10 @@
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1">
       <c r="A16" s="17"/>
-      <c r="B16" s="84" t="s">
+      <c r="B16" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="85"/>
+      <c r="C16" s="78"/>
       <c r="D16" s="32" t="s">
         <v>32</v>
       </c>
@@ -2260,10 +2251,10 @@
     </row>
     <row r="17" spans="1:26" ht="15.75" customHeight="1">
       <c r="A17" s="17"/>
-      <c r="B17" s="84" t="s">
+      <c r="B17" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="85"/>
+      <c r="C17" s="78"/>
       <c r="D17" s="32" t="s">
         <v>35</v>
       </c>
@@ -2302,10 +2293,10 @@
     </row>
     <row r="18" spans="1:26" ht="15.75" customHeight="1">
       <c r="A18" s="36"/>
-      <c r="B18" s="84" t="s">
+      <c r="B18" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="85"/>
+      <c r="C18" s="78"/>
       <c r="D18" s="37" t="s">
         <v>35</v>
       </c>
@@ -2344,10 +2335,10 @@
     </row>
     <row r="19" spans="1:26" ht="15.75" customHeight="1">
       <c r="A19" s="17"/>
-      <c r="B19" s="84" t="s">
+      <c r="B19" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="85"/>
+      <c r="C19" s="78"/>
       <c r="D19" s="37" t="s">
         <v>35</v>
       </c>
@@ -2386,10 +2377,10 @@
     </row>
     <row r="20" spans="1:26" ht="15.75" customHeight="1">
       <c r="A20" s="17"/>
-      <c r="B20" s="84" t="s">
+      <c r="B20" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="85"/>
+      <c r="C20" s="78"/>
       <c r="D20" s="37" t="s">
         <v>35</v>
       </c>
@@ -2428,10 +2419,10 @@
     </row>
     <row r="21" spans="1:26" ht="15.75" customHeight="1">
       <c r="A21" s="17"/>
-      <c r="B21" s="84" t="s">
+      <c r="B21" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="85"/>
+      <c r="C21" s="78"/>
       <c r="D21" s="37" t="s">
         <v>35</v>
       </c>
@@ -2470,10 +2461,10 @@
     </row>
     <row r="22" spans="1:26" ht="15.75" customHeight="1">
       <c r="A22" s="17"/>
-      <c r="B22" s="84" t="s">
+      <c r="B22" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="85"/>
+      <c r="C22" s="78"/>
       <c r="D22" s="37" t="s">
         <v>35</v>
       </c>
@@ -2512,10 +2503,10 @@
     </row>
     <row r="23" spans="1:26" ht="15.75" customHeight="1">
       <c r="A23" s="17"/>
-      <c r="B23" s="84" t="s">
+      <c r="B23" s="77" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="85"/>
+      <c r="C23" s="78"/>
       <c r="D23" s="37" t="s">
         <v>35</v>
       </c>
@@ -2531,8 +2522,8 @@
       <c r="H23" s="26">
         <v>44830</v>
       </c>
-      <c r="I23" s="38">
-        <v>0.5</v>
+      <c r="I23" s="27">
+        <v>1</v>
       </c>
       <c r="J23" s="31"/>
       <c r="K23" s="28"/>
@@ -2554,10 +2545,10 @@
     </row>
     <row r="24" spans="1:26" ht="15.75" customHeight="1">
       <c r="A24" s="17"/>
-      <c r="B24" s="84" t="s">
+      <c r="B24" s="77" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="85"/>
+      <c r="C24" s="78"/>
       <c r="D24" s="37" t="s">
         <v>35</v>
       </c>
@@ -2573,8 +2564,8 @@
       <c r="H24" s="26">
         <v>44830</v>
       </c>
-      <c r="I24" s="38">
-        <v>0.5</v>
+      <c r="I24" s="27">
+        <v>1</v>
       </c>
       <c r="J24" s="31"/>
       <c r="K24" s="28"/>
@@ -2596,7 +2587,7 @@
     </row>
     <row r="25" spans="1:26" ht="15.75" customHeight="1">
       <c r="A25" s="17"/>
-      <c r="B25" s="86" t="s">
+      <c r="B25" s="89" t="s">
         <v>52</v>
       </c>
       <c r="C25" s="87"/>
@@ -2638,10 +2629,10 @@
     </row>
     <row r="26" spans="1:26" ht="15.75" customHeight="1">
       <c r="A26" s="17"/>
-      <c r="B26" s="84" t="s">
+      <c r="B26" s="77" t="s">
         <v>56</v>
       </c>
-      <c r="C26" s="85"/>
+      <c r="C26" s="78"/>
       <c r="D26" s="32" t="s">
         <v>57</v>
       </c>
@@ -2680,14 +2671,14 @@
     </row>
     <row r="27" spans="1:26" ht="15.75" customHeight="1">
       <c r="A27" s="17"/>
-      <c r="B27" s="88" t="s">
+      <c r="B27" s="84" t="s">
         <v>59</v>
       </c>
-      <c r="C27" s="85"/>
-      <c r="D27" s="39" t="s">
+      <c r="C27" s="78"/>
+      <c r="D27" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="E27" s="40" t="s">
+      <c r="E27" s="39" t="s">
         <v>61</v>
       </c>
       <c r="F27" s="34" t="s">
@@ -2699,8 +2690,8 @@
       <c r="H27" s="26">
         <v>44830</v>
       </c>
-      <c r="I27" s="38">
-        <v>0.6</v>
+      <c r="I27" s="27">
+        <v>1</v>
       </c>
       <c r="J27" s="31"/>
       <c r="K27" s="28"/>
@@ -2722,10 +2713,10 @@
     </row>
     <row r="28" spans="1:26" ht="15.75" customHeight="1">
       <c r="A28" s="17"/>
-      <c r="B28" s="84" t="s">
+      <c r="B28" s="77" t="s">
         <v>63</v>
       </c>
-      <c r="C28" s="85"/>
+      <c r="C28" s="78"/>
       <c r="D28" s="32" t="s">
         <v>64</v>
       </c>
@@ -2741,8 +2732,8 @@
       <c r="H28" s="26">
         <v>44836</v>
       </c>
-      <c r="I28" s="38">
-        <v>0.6</v>
+      <c r="I28" s="27">
+        <v>1</v>
       </c>
       <c r="J28" s="31"/>
       <c r="K28" s="28"/>
@@ -2764,10 +2755,10 @@
     </row>
     <row r="29" spans="1:26" ht="15.75" customHeight="1">
       <c r="A29" s="17"/>
-      <c r="B29" s="84" t="s">
+      <c r="B29" s="77" t="s">
         <v>66</v>
       </c>
-      <c r="C29" s="85"/>
+      <c r="C29" s="78"/>
       <c r="D29" s="32" t="s">
         <v>67</v>
       </c>
@@ -2783,8 +2774,8 @@
       <c r="H29" s="26">
         <v>44836</v>
       </c>
-      <c r="I29" s="41">
-        <v>0</v>
+      <c r="I29" s="27">
+        <v>1</v>
       </c>
       <c r="J29" s="31"/>
       <c r="P29" s="2"/>
@@ -2801,10 +2792,10 @@
     </row>
     <row r="30" spans="1:26" ht="15.75" customHeight="1">
       <c r="A30" s="17"/>
-      <c r="B30" s="84" t="s">
+      <c r="B30" s="77" t="s">
         <v>69</v>
       </c>
-      <c r="C30" s="85"/>
+      <c r="C30" s="78"/>
       <c r="D30" s="32" t="s">
         <v>70</v>
       </c>
@@ -2820,8 +2811,8 @@
       <c r="H30" s="26">
         <v>44837</v>
       </c>
-      <c r="I30" s="41">
-        <v>0</v>
+      <c r="I30" s="27">
+        <v>1</v>
       </c>
       <c r="J30" s="31"/>
       <c r="K30" s="9"/>
@@ -2842,25 +2833,25 @@
       <c r="Z30" s="2"/>
     </row>
     <row r="31" spans="1:26" ht="26.25" customHeight="1">
-      <c r="A31" s="42" t="s">
+      <c r="A31" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="B31" s="89" t="s">
+      <c r="B31" s="88" t="s">
         <v>73</v>
       </c>
-      <c r="C31" s="85"/>
-      <c r="D31" s="43" t="s">
+      <c r="C31" s="78"/>
+      <c r="D31" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="E31" s="44"/>
-      <c r="F31" s="45"/>
-      <c r="G31" s="46">
+      <c r="E31" s="43"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="45">
         <v>44816</v>
       </c>
-      <c r="H31" s="46">
+      <c r="H31" s="45">
         <v>44837</v>
       </c>
-      <c r="I31" s="47"/>
+      <c r="I31" s="46"/>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
@@ -2880,11 +2871,11 @@
       <c r="Z31" s="2"/>
     </row>
     <row r="32" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A32" s="48"/>
-      <c r="B32" s="90" t="s">
+      <c r="A32" s="47"/>
+      <c r="B32" s="85" t="s">
         <v>75</v>
       </c>
-      <c r="C32" s="85"/>
+      <c r="C32" s="78"/>
       <c r="D32" s="32" t="s">
         <v>35</v>
       </c>
@@ -2900,7 +2891,7 @@
       <c r="H32" s="26">
         <v>44844</v>
       </c>
-      <c r="I32" s="41">
+      <c r="I32" s="40">
         <v>0</v>
       </c>
       <c r="J32" s="31"/>
@@ -2922,12 +2913,12 @@
       <c r="Z32" s="2"/>
     </row>
     <row r="33" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A33" s="48"/>
-      <c r="B33" s="88" t="s">
+      <c r="A33" s="47"/>
+      <c r="B33" s="84" t="s">
         <v>76</v>
       </c>
-      <c r="C33" s="85"/>
-      <c r="D33" s="49" t="s">
+      <c r="C33" s="78"/>
+      <c r="D33" s="48" t="s">
         <v>53</v>
       </c>
       <c r="E33" s="30" t="s">
@@ -2942,7 +2933,7 @@
       <c r="H33" s="26">
         <v>44844</v>
       </c>
-      <c r="I33" s="41">
+      <c r="I33" s="40">
         <v>0</v>
       </c>
       <c r="J33" s="31"/>
@@ -2964,18 +2955,18 @@
       <c r="Z33" s="2"/>
     </row>
     <row r="34" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A34" s="48"/>
-      <c r="B34" s="50" t="s">
+      <c r="A34" s="47"/>
+      <c r="B34" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="C34" s="51"/>
-      <c r="D34" s="49" t="s">
+      <c r="C34" s="50"/>
+      <c r="D34" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="E34" s="40" t="s">
+      <c r="E34" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="F34" s="52" t="s">
+      <c r="F34" s="51" t="s">
         <v>62</v>
       </c>
       <c r="G34" s="26">
@@ -2984,7 +2975,7 @@
       <c r="H34" s="26">
         <v>44844</v>
       </c>
-      <c r="I34" s="41">
+      <c r="I34" s="40">
         <v>0</v>
       </c>
       <c r="J34" s="31"/>
@@ -3006,15 +2997,15 @@
       <c r="Z34" s="2"/>
     </row>
     <row r="35" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A35" s="48"/>
-      <c r="B35" s="91" t="s">
+      <c r="A35" s="47"/>
+      <c r="B35" s="86" t="s">
         <v>78</v>
       </c>
       <c r="C35" s="87"/>
-      <c r="D35" s="53" t="s">
+      <c r="D35" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="E35" s="54" t="s">
+      <c r="E35" s="53" t="s">
         <v>80</v>
       </c>
       <c r="F35" s="34" t="s">
@@ -3026,7 +3017,7 @@
       <c r="H35" s="26">
         <v>44852</v>
       </c>
-      <c r="I35" s="41">
+      <c r="I35" s="40">
         <v>0</v>
       </c>
       <c r="J35" s="31"/>
@@ -3048,15 +3039,15 @@
       <c r="Z35" s="2"/>
     </row>
     <row r="36" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A36" s="48"/>
-      <c r="B36" s="55" t="s">
+      <c r="A36" s="47"/>
+      <c r="B36" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="C36" s="56"/>
-      <c r="D36" s="53" t="s">
+      <c r="C36" s="55"/>
+      <c r="D36" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="E36" s="54" t="s">
+      <c r="E36" s="53" t="s">
         <v>83</v>
       </c>
       <c r="F36" s="25" t="s">
@@ -3068,7 +3059,7 @@
       <c r="H36" s="26">
         <v>44852</v>
       </c>
-      <c r="I36" s="41">
+      <c r="I36" s="40">
         <v>0</v>
       </c>
       <c r="J36" s="31"/>
@@ -3090,15 +3081,15 @@
       <c r="Z36" s="2"/>
     </row>
     <row r="37" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A37" s="48"/>
-      <c r="B37" s="55" t="s">
+      <c r="A37" s="47"/>
+      <c r="B37" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="C37" s="56"/>
-      <c r="D37" s="53" t="s">
+      <c r="C37" s="55"/>
+      <c r="D37" s="52" t="s">
         <v>85</v>
       </c>
-      <c r="E37" s="54" t="s">
+      <c r="E37" s="53" t="s">
         <v>86</v>
       </c>
       <c r="F37" s="25" t="s">
@@ -3110,7 +3101,7 @@
       <c r="H37" s="26">
         <v>44858</v>
       </c>
-      <c r="I37" s="41">
+      <c r="I37" s="40">
         <v>0</v>
       </c>
       <c r="J37" s="31"/>
@@ -3132,15 +3123,15 @@
       <c r="Z37" s="2"/>
     </row>
     <row r="38" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A38" s="48"/>
-      <c r="B38" s="55" t="s">
+      <c r="A38" s="47"/>
+      <c r="B38" s="54" t="s">
         <v>87</v>
       </c>
-      <c r="C38" s="56"/>
-      <c r="D38" s="53" t="s">
+      <c r="C38" s="55"/>
+      <c r="D38" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="E38" s="54" t="s">
+      <c r="E38" s="53" t="s">
         <v>89</v>
       </c>
       <c r="F38" s="25" t="s">
@@ -3152,7 +3143,7 @@
       <c r="H38" s="26">
         <v>44858</v>
       </c>
-      <c r="I38" s="41">
+      <c r="I38" s="40">
         <v>0</v>
       </c>
       <c r="J38" s="31"/>
@@ -3174,11 +3165,11 @@
       <c r="Z38" s="2"/>
     </row>
     <row r="39" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A39" s="48"/>
-      <c r="B39" s="84" t="s">
+      <c r="A39" s="47"/>
+      <c r="B39" s="77" t="s">
         <v>66</v>
       </c>
-      <c r="C39" s="85"/>
+      <c r="C39" s="78"/>
       <c r="D39" s="32" t="s">
         <v>67</v>
       </c>
@@ -3194,7 +3185,7 @@
       <c r="H39" s="26">
         <v>44865</v>
       </c>
-      <c r="I39" s="41">
+      <c r="I39" s="40">
         <v>0</v>
       </c>
       <c r="J39" s="31"/>
@@ -3216,11 +3207,11 @@
       <c r="Z39" s="2"/>
     </row>
     <row r="40" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A40" s="48"/>
-      <c r="B40" s="84" t="s">
+      <c r="A40" s="47"/>
+      <c r="B40" s="77" t="s">
         <v>69</v>
       </c>
-      <c r="C40" s="85"/>
+      <c r="C40" s="78"/>
       <c r="D40" s="32" t="s">
         <v>91</v>
       </c>
@@ -3236,7 +3227,7 @@
       <c r="H40" s="26">
         <v>44865</v>
       </c>
-      <c r="I40" s="41">
+      <c r="I40" s="40">
         <v>0</v>
       </c>
       <c r="J40" s="31"/>
@@ -3258,25 +3249,25 @@
       <c r="Z40" s="2"/>
     </row>
     <row r="41" spans="1:26" ht="24.75" customHeight="1">
-      <c r="A41" s="42" t="s">
+      <c r="A41" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="B41" s="89" t="s">
+      <c r="B41" s="88" t="s">
         <v>93</v>
       </c>
-      <c r="C41" s="85"/>
-      <c r="D41" s="43" t="s">
+      <c r="C41" s="78"/>
+      <c r="D41" s="42" t="s">
         <v>94</v>
       </c>
-      <c r="E41" s="44"/>
-      <c r="F41" s="57"/>
-      <c r="G41" s="46">
+      <c r="E41" s="43"/>
+      <c r="F41" s="56"/>
+      <c r="G41" s="45">
         <v>44838</v>
       </c>
-      <c r="H41" s="46">
+      <c r="H41" s="45">
         <v>44865</v>
       </c>
-      <c r="I41" s="58"/>
+      <c r="I41" s="57"/>
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
@@ -3296,15 +3287,15 @@
       <c r="Z41" s="2"/>
     </row>
     <row r="42" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A42" s="48"/>
-      <c r="B42" s="88" t="s">
+      <c r="A42" s="47"/>
+      <c r="B42" s="84" t="s">
         <v>95</v>
       </c>
-      <c r="C42" s="85"/>
-      <c r="D42" s="53" t="s">
+      <c r="C42" s="78"/>
+      <c r="D42" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="E42" s="54" t="s">
+      <c r="E42" s="53" t="s">
         <v>89</v>
       </c>
       <c r="F42" s="25" t="s">
@@ -3316,7 +3307,7 @@
       <c r="H42" s="26">
         <v>44873</v>
       </c>
-      <c r="I42" s="41">
+      <c r="I42" s="40">
         <v>0</v>
       </c>
       <c r="J42" s="31"/>
@@ -3338,15 +3329,15 @@
       <c r="Z42" s="2"/>
     </row>
     <row r="43" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A43" s="48"/>
-      <c r="B43" s="88" t="s">
+      <c r="A43" s="47"/>
+      <c r="B43" s="84" t="s">
         <v>96</v>
       </c>
-      <c r="C43" s="85"/>
-      <c r="D43" s="53" t="s">
+      <c r="C43" s="78"/>
+      <c r="D43" s="52" t="s">
         <v>85</v>
       </c>
-      <c r="E43" s="54" t="s">
+      <c r="E43" s="53" t="s">
         <v>86</v>
       </c>
       <c r="F43" s="25" t="s">
@@ -3358,7 +3349,7 @@
       <c r="H43" s="26">
         <v>44873</v>
       </c>
-      <c r="I43" s="41">
+      <c r="I43" s="40">
         <v>0</v>
       </c>
       <c r="J43" s="31"/>
@@ -3380,15 +3371,15 @@
       <c r="Z43" s="2"/>
     </row>
     <row r="44" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A44" s="48"/>
-      <c r="B44" s="88" t="s">
+      <c r="A44" s="47"/>
+      <c r="B44" s="84" t="s">
         <v>97</v>
       </c>
-      <c r="C44" s="85"/>
-      <c r="D44" s="53" t="s">
+      <c r="C44" s="78"/>
+      <c r="D44" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="E44" s="54" t="s">
+      <c r="E44" s="53" t="s">
         <v>89</v>
       </c>
       <c r="F44" s="25" t="s">
@@ -3400,7 +3391,7 @@
       <c r="H44" s="26">
         <v>44873</v>
       </c>
-      <c r="I44" s="41">
+      <c r="I44" s="40">
         <v>0</v>
       </c>
       <c r="J44" s="31"/>
@@ -3422,12 +3413,12 @@
       <c r="Z44" s="2"/>
     </row>
     <row r="45" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A45" s="48"/>
-      <c r="B45" s="88" t="s">
+      <c r="A45" s="47"/>
+      <c r="B45" s="84" t="s">
         <v>98</v>
       </c>
-      <c r="C45" s="85"/>
-      <c r="D45" s="49" t="s">
+      <c r="C45" s="78"/>
+      <c r="D45" s="48" t="s">
         <v>35</v>
       </c>
       <c r="E45" s="30" t="s">
@@ -3442,7 +3433,7 @@
       <c r="H45" s="26">
         <v>44880</v>
       </c>
-      <c r="I45" s="41">
+      <c r="I45" s="40">
         <v>0</v>
       </c>
       <c r="J45" s="31"/>
@@ -3464,12 +3455,12 @@
       <c r="Z45" s="2"/>
     </row>
     <row r="46" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A46" s="48"/>
-      <c r="B46" s="90" t="s">
+      <c r="A46" s="47"/>
+      <c r="B46" s="85" t="s">
         <v>99</v>
       </c>
-      <c r="C46" s="85"/>
-      <c r="D46" s="39" t="s">
+      <c r="C46" s="78"/>
+      <c r="D46" s="38" t="s">
         <v>53</v>
       </c>
       <c r="E46" s="30" t="s">
@@ -3484,7 +3475,7 @@
       <c r="H46" s="26">
         <v>44880</v>
       </c>
-      <c r="I46" s="41">
+      <c r="I46" s="40">
         <v>0</v>
       </c>
       <c r="J46" s="31"/>
@@ -3506,18 +3497,18 @@
       <c r="Z46" s="2"/>
     </row>
     <row r="47" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A47" s="48"/>
-      <c r="B47" s="96" t="s">
+      <c r="A47" s="47"/>
+      <c r="B47" s="83" t="s">
         <v>100</v>
       </c>
-      <c r="C47" s="93"/>
-      <c r="D47" s="39" t="s">
+      <c r="C47" s="80"/>
+      <c r="D47" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="E47" s="40" t="s">
+      <c r="E47" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="F47" s="52" t="s">
+      <c r="F47" s="51" t="s">
         <v>62</v>
       </c>
       <c r="G47" s="26">
@@ -3526,7 +3517,7 @@
       <c r="H47" s="26">
         <v>44880</v>
       </c>
-      <c r="I47" s="41">
+      <c r="I47" s="40">
         <v>0</v>
       </c>
       <c r="J47" s="31"/>
@@ -3548,11 +3539,11 @@
       <c r="Z47" s="2"/>
     </row>
     <row r="48" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A48" s="48"/>
-      <c r="B48" s="84" t="s">
+      <c r="A48" s="47"/>
+      <c r="B48" s="77" t="s">
         <v>101</v>
       </c>
-      <c r="C48" s="85"/>
+      <c r="C48" s="78"/>
       <c r="D48" s="32" t="s">
         <v>64</v>
       </c>
@@ -3568,7 +3559,7 @@
       <c r="H48" s="26">
         <v>44880</v>
       </c>
-      <c r="I48" s="41">
+      <c r="I48" s="40">
         <v>0</v>
       </c>
       <c r="J48" s="31"/>
@@ -3590,11 +3581,11 @@
       <c r="Z48" s="2"/>
     </row>
     <row r="49" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A49" s="48"/>
-      <c r="B49" s="84" t="s">
+      <c r="A49" s="47"/>
+      <c r="B49" s="77" t="s">
         <v>102</v>
       </c>
-      <c r="C49" s="85"/>
+      <c r="C49" s="78"/>
       <c r="D49" s="32" t="s">
         <v>32</v>
       </c>
@@ -3610,7 +3601,7 @@
       <c r="H49" s="26">
         <v>44880</v>
       </c>
-      <c r="I49" s="41">
+      <c r="I49" s="40">
         <v>0</v>
       </c>
       <c r="J49" s="31"/>
@@ -3632,11 +3623,11 @@
       <c r="Z49" s="9"/>
     </row>
     <row r="50" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A50" s="48"/>
-      <c r="B50" s="84" t="s">
+      <c r="A50" s="47"/>
+      <c r="B50" s="77" t="s">
         <v>103</v>
       </c>
-      <c r="C50" s="85"/>
+      <c r="C50" s="78"/>
       <c r="D50" s="32" t="s">
         <v>57</v>
       </c>
@@ -3652,7 +3643,7 @@
       <c r="H50" s="26">
         <v>44884</v>
       </c>
-      <c r="I50" s="41">
+      <c r="I50" s="40">
         <v>0</v>
       </c>
       <c r="J50" s="31"/>
@@ -3674,11 +3665,11 @@
       <c r="Z50" s="9"/>
     </row>
     <row r="51" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A51" s="48"/>
-      <c r="B51" s="84" t="s">
+      <c r="A51" s="47"/>
+      <c r="B51" s="77" t="s">
         <v>104</v>
       </c>
-      <c r="C51" s="85"/>
+      <c r="C51" s="78"/>
       <c r="D51" s="32" t="s">
         <v>105</v>
       </c>
@@ -3694,7 +3685,7 @@
       <c r="H51" s="26">
         <v>44884</v>
       </c>
-      <c r="I51" s="41">
+      <c r="I51" s="40">
         <v>0</v>
       </c>
       <c r="J51" s="31"/>
@@ -3716,11 +3707,11 @@
       <c r="Z51" s="2"/>
     </row>
     <row r="52" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A52" s="48"/>
-      <c r="B52" s="84" t="s">
+      <c r="A52" s="47"/>
+      <c r="B52" s="77" t="s">
         <v>107</v>
       </c>
-      <c r="C52" s="85"/>
+      <c r="C52" s="78"/>
       <c r="D52" s="32" t="s">
         <v>108</v>
       </c>
@@ -3736,7 +3727,7 @@
       <c r="H52" s="26">
         <v>44884</v>
       </c>
-      <c r="I52" s="41">
+      <c r="I52" s="40">
         <v>0</v>
       </c>
       <c r="J52" s="31"/>
@@ -3758,11 +3749,11 @@
       <c r="Z52" s="2"/>
     </row>
     <row r="53" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A53" s="48"/>
-      <c r="B53" s="84" t="s">
+      <c r="A53" s="47"/>
+      <c r="B53" s="77" t="s">
         <v>66</v>
       </c>
-      <c r="C53" s="85"/>
+      <c r="C53" s="78"/>
       <c r="D53" s="32" t="s">
         <v>67</v>
       </c>
@@ -3778,7 +3769,7 @@
       <c r="H53" s="26">
         <v>44884</v>
       </c>
-      <c r="I53" s="41">
+      <c r="I53" s="40">
         <v>0</v>
       </c>
       <c r="J53" s="31"/>
@@ -3800,11 +3791,11 @@
       <c r="Z53" s="2"/>
     </row>
     <row r="54" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A54" s="48"/>
-      <c r="B54" s="84" t="s">
+      <c r="A54" s="47"/>
+      <c r="B54" s="77" t="s">
         <v>69</v>
       </c>
-      <c r="C54" s="85"/>
+      <c r="C54" s="78"/>
       <c r="D54" s="32" t="s">
         <v>110</v>
       </c>
@@ -3820,7 +3811,7 @@
       <c r="H54" s="26">
         <v>44885</v>
       </c>
-      <c r="I54" s="41">
+      <c r="I54" s="40">
         <v>0</v>
       </c>
       <c r="J54" s="31"/>
@@ -3842,15 +3833,15 @@
       <c r="Z54" s="2"/>
     </row>
     <row r="55" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A55" s="48"/>
-      <c r="B55" s="92" t="s">
+      <c r="A55" s="47"/>
+      <c r="B55" s="79" t="s">
         <v>111</v>
       </c>
-      <c r="C55" s="93"/>
-      <c r="D55" s="59" t="s">
+      <c r="C55" s="80"/>
+      <c r="D55" s="58" t="s">
         <v>112</v>
       </c>
-      <c r="E55" s="60" t="s">
+      <c r="E55" s="59" t="s">
         <v>113</v>
       </c>
       <c r="F55" s="25" t="s">
@@ -3862,7 +3853,7 @@
       <c r="H55" s="26">
         <v>44885</v>
       </c>
-      <c r="I55" s="41">
+      <c r="I55" s="40">
         <v>0</v>
       </c>
       <c r="J55" s="31"/>
@@ -3884,25 +3875,25 @@
       <c r="Z55" s="2"/>
     </row>
     <row r="56" spans="1:26" ht="24.75" customHeight="1">
-      <c r="A56" s="42" t="s">
+      <c r="A56" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="B56" s="94" t="s">
+      <c r="B56" s="81" t="s">
         <v>115</v>
       </c>
-      <c r="C56" s="95"/>
-      <c r="D56" s="61" t="s">
+      <c r="C56" s="82"/>
+      <c r="D56" s="60" t="s">
         <v>116</v>
       </c>
-      <c r="E56" s="62"/>
-      <c r="F56" s="63"/>
-      <c r="G56" s="64">
+      <c r="E56" s="61"/>
+      <c r="F56" s="62"/>
+      <c r="G56" s="63">
         <v>44866</v>
       </c>
-      <c r="H56" s="64">
+      <c r="H56" s="63">
         <v>44885</v>
       </c>
-      <c r="I56" s="65"/>
+      <c r="I56" s="64"/>
       <c r="J56" s="2"/>
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
@@ -3923,14 +3914,14 @@
     </row>
     <row r="57" spans="1:26" ht="15.75" customHeight="1">
       <c r="A57" s="2"/>
-      <c r="B57" s="66"/>
-      <c r="C57" s="66"/>
-      <c r="D57" s="66"/>
-      <c r="E57" s="66"/>
-      <c r="F57" s="66"/>
-      <c r="G57" s="67"/>
-      <c r="H57" s="67"/>
-      <c r="I57" s="67"/>
+      <c r="B57" s="65"/>
+      <c r="C57" s="65"/>
+      <c r="D57" s="65"/>
+      <c r="E57" s="65"/>
+      <c r="F57" s="65"/>
+      <c r="G57" s="66"/>
+      <c r="H57" s="66"/>
+      <c r="I57" s="66"/>
       <c r="J57" s="2"/>
       <c r="K57" s="2"/>
       <c r="L57" s="2"/>
@@ -3951,8 +3942,8 @@
     </row>
     <row r="58" spans="1:26" ht="15.75" customHeight="1">
       <c r="A58" s="2"/>
-      <c r="B58" s="68"/>
-      <c r="C58" s="68"/>
+      <c r="B58" s="67"/>
+      <c r="C58" s="67"/>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
@@ -3979,8 +3970,8 @@
     </row>
     <row r="59" spans="1:26" ht="15.75" customHeight="1">
       <c r="A59" s="2"/>
-      <c r="B59" s="69"/>
-      <c r="C59" s="69"/>
+      <c r="B59" s="68"/>
+      <c r="C59" s="68"/>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
@@ -30691,6 +30682,41 @@
     </row>
   </sheetData>
   <mergeCells count="45">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
     <mergeCell ref="B54:C54"/>
     <mergeCell ref="B55:C55"/>
     <mergeCell ref="B56:C56"/>
@@ -30701,43 +30727,8 @@
     <mergeCell ref="B51:C51"/>
     <mergeCell ref="B52:C52"/>
     <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
   </mergeCells>
-  <conditionalFormatting sqref="I11:I30 I32:I40 I42:I55">
+  <conditionalFormatting sqref="I32:I40 I42:I55 I11:I30">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"100%"</formula>
     </cfRule>
@@ -30771,86 +30762,86 @@
   <sheetData>
     <row r="1" spans="2:3" ht="15.75" customHeight="1"/>
     <row r="2" spans="2:3" ht="15.75" customHeight="1">
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="69" t="s">
         <v>117</v>
       </c>
-      <c r="C2" s="71"/>
+      <c r="C2" s="70"/>
     </row>
     <row r="3" spans="2:3" ht="15.75" customHeight="1">
-      <c r="B3" s="97" t="s">
+      <c r="B3" s="96" t="s">
         <v>118</v>
       </c>
-      <c r="C3" s="81"/>
+      <c r="C3" s="93"/>
     </row>
     <row r="4" spans="2:3" ht="15.75" customHeight="1">
-      <c r="B4" s="72" t="s">
+      <c r="B4" s="71" t="s">
         <v>119</v>
       </c>
-      <c r="C4" s="73" t="s">
+      <c r="C4" s="72" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="15.75" customHeight="1">
-      <c r="B5" s="74" t="s">
+      <c r="B5" s="73" t="s">
         <v>121</v>
       </c>
-      <c r="C5" s="75" t="s">
+      <c r="C5" s="74" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="15.75" customHeight="1">
-      <c r="B6" s="74" t="s">
+      <c r="B6" s="73" t="s">
         <v>123</v>
       </c>
-      <c r="C6" s="75" t="s">
+      <c r="C6" s="74" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="15.75" customHeight="1">
-      <c r="B7" s="74" t="s">
+      <c r="B7" s="73" t="s">
         <v>125</v>
       </c>
-      <c r="C7" s="75" t="s">
+      <c r="C7" s="74" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="15.75" customHeight="1">
-      <c r="B8" s="74" t="s">
+      <c r="B8" s="73" t="s">
         <v>126</v>
       </c>
-      <c r="C8" s="75" t="s">
+      <c r="C8" s="74" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="15.75" customHeight="1">
-      <c r="B9" s="74" t="s">
+      <c r="B9" s="73" t="s">
         <v>128</v>
       </c>
-      <c r="C9" s="75" t="s">
+      <c r="C9" s="74" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="15.75" customHeight="1">
-      <c r="B10" s="74" t="s">
+      <c r="B10" s="73" t="s">
         <v>129</v>
       </c>
-      <c r="C10" s="75" t="s">
+      <c r="C10" s="74" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="11" spans="2:3" ht="15.75" customHeight="1">
-      <c r="B11" s="74" t="s">
+      <c r="B11" s="73" t="s">
         <v>131</v>
       </c>
-      <c r="C11" s="75" t="s">
+      <c r="C11" s="74" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="12" spans="2:3" ht="15.75" customHeight="1">
-      <c r="B12" s="76" t="s">
+      <c r="B12" s="75" t="s">
         <v>132</v>
       </c>
-      <c r="C12" s="77" t="s">
+      <c r="C12" s="76" t="s">
         <v>133</v>
       </c>
     </row>
